--- a/src/excels/immune/top_genes_cluster_0.3.xlsx
+++ b/src/excels/immune/top_genes_cluster_0.3.xlsx
@@ -1730,58 +1730,58 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>mt-Co1</t>
+          <t>Atp8b4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.956467151641846</v>
+        <v>4.109916210174561</v>
       </c>
       <c r="C4" t="n">
-        <v>3.448221206665039</v>
+        <v>3.391626119613647</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1324885616207228</v>
+        <v>0.08913864080520272</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.4838709677419355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Atp8b4</t>
+          <t>Fau</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.109916210174561</v>
+        <v>2.89272928237915</v>
       </c>
       <c r="C5" t="n">
-        <v>3.391626119613647</v>
+        <v>3.1338791847229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08913864080520272</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mt-Co3</t>
+          <t>Mctp2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.034442901611328</v>
+        <v>2.650044679641724</v>
       </c>
       <c r="C6" t="n">
-        <v>3.306339025497437</v>
+        <v>2.960441589355469</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
   </sheetData>
